--- a/0_0_Data/2_Processed_Data/1_rt_GVA_series/qoq_rt_GVA_data.xlsx
+++ b/0_0_Data/2_Processed_Data/1_rt_GVA_series/qoq_rt_GVA_data.xlsx
@@ -380,13 +380,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CC139"/>
+  <dimension ref="A1:CD140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:81">
+    <row r="1" spans="1:82">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -630,13 +630,16 @@
       <c r="CC1" s="2">
         <v>45891</v>
       </c>
+      <c r="CD1" s="2">
+        <v>45986</v>
+      </c>
     </row>
-    <row r="2" spans="1:81">
+    <row r="2" spans="1:82">
       <c r="A2" s="2">
         <v>33284</v>
       </c>
     </row>
-    <row r="3" spans="1:81">
+    <row r="3" spans="1:82">
       <c r="A3" s="2">
         <v>33374</v>
       </c>
@@ -880,8 +883,11 @@
       <c r="CC3">
         <v>-0.9936124911284639</v>
       </c>
+      <c r="CD3">
+        <v>-1.007663922793065</v>
+      </c>
     </row>
-    <row r="4" spans="1:81">
+    <row r="4" spans="1:82">
       <c r="A4" s="2">
         <v>33465</v>
       </c>
@@ -1125,8 +1131,11 @@
       <c r="CC4">
         <v>-0.129032258064521</v>
       </c>
+      <c r="CD4">
+        <v>-0.129032258064521</v>
+      </c>
     </row>
-    <row r="5" spans="1:81">
+    <row r="5" spans="1:82">
       <c r="A5" s="2">
         <v>33557</v>
       </c>
@@ -1370,8 +1379,11 @@
       <c r="CC5">
         <v>1.363766867642841</v>
       </c>
+      <c r="CD5">
+        <v>1.363766867642841</v>
+      </c>
     </row>
-    <row r="6" spans="1:81">
+    <row r="6" spans="1:82">
       <c r="A6" s="2">
         <v>33649</v>
       </c>
@@ -1615,8 +1627,11 @@
       <c r="CC6">
         <v>1.628664495114015</v>
       </c>
+      <c r="CD6">
+        <v>1.642826795071515</v>
+      </c>
     </row>
-    <row r="7" spans="1:81">
+    <row r="7" spans="1:82">
       <c r="A7" s="2">
         <v>33740</v>
       </c>
@@ -1860,8 +1875,11 @@
       <c r="CC7">
         <v>-0.6828316610925432</v>
       </c>
+      <c r="CD7">
+        <v>-0.6966699177929497</v>
+      </c>
     </row>
-    <row r="8" spans="1:81">
+    <row r="8" spans="1:82">
       <c r="A8" s="2">
         <v>33831</v>
       </c>
@@ -2105,8 +2123,11 @@
       <c r="CC8">
         <v>-0.2104672372667202</v>
       </c>
+      <c r="CD8">
+        <v>-0.1964360881156175</v>
+      </c>
     </row>
-    <row r="9" spans="1:81">
+    <row r="9" spans="1:82">
       <c r="A9" s="2">
         <v>33923</v>
       </c>
@@ -2350,8 +2371,11 @@
       <c r="CC9">
         <v>-0.5624296962879719</v>
       </c>
+      <c r="CD9">
+        <v>-0.576409391255443</v>
+      </c>
     </row>
-    <row r="10" spans="1:81">
+    <row r="10" spans="1:82">
       <c r="A10" s="2">
         <v>34015</v>
       </c>
@@ -2595,8 +2619,11 @@
       <c r="CC10">
         <v>-0.5797511312217146</v>
       </c>
+      <c r="CD10">
+        <v>-0.5797511312217146</v>
+      </c>
     </row>
-    <row r="11" spans="1:81">
+    <row r="11" spans="1:82">
       <c r="A11" s="2">
         <v>34105</v>
       </c>
@@ -2840,8 +2867,11 @@
       <c r="CC11">
         <v>-0.09955909543451484</v>
       </c>
+      <c r="CD11">
+        <v>-0.09955909543451484</v>
+      </c>
     </row>
-    <row r="12" spans="1:81">
+    <row r="12" spans="1:82">
       <c r="A12" s="2">
         <v>34196</v>
       </c>
@@ -3085,8 +3115,11 @@
       <c r="CC12">
         <v>0.3274487471526253</v>
       </c>
+      <c r="CD12">
+        <v>0.3274487471526253</v>
+      </c>
     </row>
-    <row r="13" spans="1:81">
+    <row r="13" spans="1:82">
       <c r="A13" s="2">
         <v>34288</v>
       </c>
@@ -3330,8 +3363,11 @@
       <c r="CC13">
         <v>-0.0851426138782493</v>
       </c>
+      <c r="CD13">
+        <v>-0.0851426138782493</v>
+      </c>
     </row>
-    <row r="14" spans="1:81">
+    <row r="14" spans="1:82">
       <c r="A14" s="2">
         <v>34380</v>
       </c>
@@ -3575,8 +3611,11 @@
       <c r="CC14">
         <v>0.8805567390995661</v>
       </c>
+      <c r="CD14">
+        <v>0.8947592671495663</v>
+      </c>
     </row>
-    <row r="15" spans="1:81">
+    <row r="15" spans="1:82">
       <c r="A15" s="2">
         <v>34470</v>
       </c>
@@ -3820,8 +3859,11 @@
       <c r="CC15">
         <v>0.9854990848937109</v>
       </c>
+      <c r="CD15">
+        <v>0.9712837837837804</v>
+      </c>
     </row>
-    <row r="16" spans="1:81">
+    <row r="16" spans="1:82">
       <c r="A16" s="2">
         <v>34561</v>
       </c>
@@ -4065,8 +4107,11 @@
       <c r="CC16">
         <v>0.5855290673358451</v>
       </c>
+      <c r="CD16">
+        <v>0.5855290673358451</v>
+      </c>
     </row>
-    <row r="17" spans="1:81">
+    <row r="17" spans="1:82">
       <c r="A17" s="2">
         <v>34653</v>
       </c>
@@ -4310,8 +4355,11 @@
       <c r="CC17">
         <v>1.233541233541234</v>
       </c>
+      <c r="CD17">
+        <v>1.233541233541234</v>
+      </c>
     </row>
-    <row r="18" spans="1:81">
+    <row r="18" spans="1:82">
       <c r="A18" s="2">
         <v>34745</v>
       </c>
@@ -4555,8 +4603,11 @@
       <c r="CC18">
         <v>-0.4518072289156797</v>
       </c>
+      <c r="CD18">
+        <v>-0.4518072289156797</v>
+      </c>
     </row>
-    <row r="19" spans="1:81">
+    <row r="19" spans="1:82">
       <c r="A19" s="2">
         <v>34835</v>
       </c>
@@ -4800,8 +4851,11 @@
       <c r="CC19">
         <v>0.9214688488516047</v>
       </c>
+      <c r="CD19">
+        <v>0.9214688488516047</v>
+      </c>
     </row>
-    <row r="20" spans="1:81">
+    <row r="20" spans="1:82">
       <c r="A20" s="2">
         <v>34926</v>
       </c>
@@ -5045,8 +5099,11 @@
       <c r="CC20">
         <v>0.2589261379122346</v>
       </c>
+      <c r="CD20">
+        <v>0.2589261379122346</v>
+      </c>
     </row>
-    <row r="21" spans="1:81">
+    <row r="21" spans="1:82">
       <c r="A21" s="2">
         <v>35018</v>
       </c>
@@ -5290,8 +5347,11 @@
       <c r="CC21">
         <v>0.2174799510670257</v>
       </c>
+      <c r="CD21">
+        <v>0.2174799510670257</v>
+      </c>
     </row>
-    <row r="22" spans="1:81">
+    <row r="22" spans="1:82">
       <c r="A22" s="2">
         <v>35110</v>
       </c>
@@ -5535,8 +5595,11 @@
       <c r="CC22">
         <v>-1.45124101451242</v>
       </c>
+      <c r="CD22">
+        <v>-1.464804014648038</v>
+      </c>
     </row>
-    <row r="23" spans="1:81">
+    <row r="23" spans="1:82">
       <c r="A23" s="2">
         <v>35201</v>
       </c>
@@ -5780,8 +5843,11 @@
       <c r="CC23">
         <v>1.913019543077348</v>
       </c>
+      <c r="CD23">
+        <v>1.927047487955941</v>
+      </c>
     </row>
-    <row r="24" spans="1:81">
+    <row r="24" spans="1:82">
       <c r="A24" s="2">
         <v>35292</v>
       </c>
@@ -6025,8 +6091,11 @@
       <c r="CC24">
         <v>0.04051316677920477</v>
       </c>
+      <c r="CD24">
+        <v>0.04051316677920477</v>
+      </c>
     </row>
-    <row r="25" spans="1:81">
+    <row r="25" spans="1:82">
       <c r="A25" s="2">
         <v>35384</v>
       </c>
@@ -6270,8 +6339,11 @@
       <c r="CC25">
         <v>1.349892008639309</v>
       </c>
+      <c r="CD25">
+        <v>1.349892008639309</v>
+      </c>
     </row>
-    <row r="26" spans="1:81">
+    <row r="26" spans="1:82">
       <c r="A26" s="2">
         <v>35476</v>
       </c>
@@ -6515,8 +6587,11 @@
       <c r="CC26">
         <v>-0.8257858284496598</v>
       </c>
+      <c r="CD26">
+        <v>-0.8257858284496598</v>
+      </c>
     </row>
-    <row r="27" spans="1:81">
+    <row r="27" spans="1:82">
       <c r="A27" s="2">
         <v>35566</v>
       </c>
@@ -6760,8 +6835,11 @@
       <c r="CC27">
         <v>1.262422777330126</v>
       </c>
+      <c r="CD27">
+        <v>1.262422777330126</v>
+      </c>
     </row>
-    <row r="28" spans="1:81">
+    <row r="28" spans="1:82">
       <c r="A28" s="2">
         <v>35657</v>
       </c>
@@ -7005,8 +7083,11 @@
       <c r="CC28">
         <v>0.4376657824933664</v>
       </c>
+      <c r="CD28">
+        <v>0.4376657824933664</v>
+      </c>
     </row>
-    <row r="29" spans="1:81">
+    <row r="29" spans="1:82">
       <c r="A29" s="2">
         <v>35749</v>
       </c>
@@ -7250,8 +7331,11 @@
       <c r="CC29">
         <v>1.214842202561734</v>
       </c>
+      <c r="CD29">
+        <v>1.214842202561734</v>
+      </c>
     </row>
-    <row r="30" spans="1:81">
+    <row r="30" spans="1:82">
       <c r="A30" s="2">
         <v>35841</v>
       </c>
@@ -7495,8 +7579,11 @@
       <c r="CC30">
         <v>0.5740378343118039</v>
       </c>
+      <c r="CD30">
+        <v>0.5740378343118039</v>
+      </c>
     </row>
-    <row r="31" spans="1:81">
+    <row r="31" spans="1:82">
       <c r="A31" s="2">
         <v>35931</v>
       </c>
@@ -7740,8 +7827,11 @@
       <c r="CC31">
         <v>-0.4669866389933836</v>
       </c>
+      <c r="CD31">
+        <v>-0.4540147879102458</v>
+      </c>
     </row>
-    <row r="32" spans="1:81">
+    <row r="32" spans="1:82">
       <c r="A32" s="2">
         <v>36022</v>
       </c>
@@ -7985,8 +8075,11 @@
       <c r="CC32">
         <v>0.5213084842955708</v>
       </c>
+      <c r="CD32">
+        <v>0.5212405525149931</v>
+      </c>
     </row>
-    <row r="33" spans="1:81">
+    <row r="33" spans="1:82">
       <c r="A33" s="2">
         <v>36114</v>
       </c>
@@ -8230,8 +8323,11 @@
       <c r="CC33">
         <v>0.2722676001555918</v>
       </c>
+      <c r="CD33">
+        <v>0.2592688618097003</v>
+      </c>
     </row>
-    <row r="34" spans="1:81">
+    <row r="34" spans="1:82">
       <c r="A34" s="2">
         <v>36206</v>
       </c>
@@ -8475,8 +8571,11 @@
       <c r="CC34">
         <v>0.7111455908973328</v>
       </c>
+      <c r="CD34">
+        <v>0.6982156710628291</v>
+      </c>
     </row>
-    <row r="35" spans="1:81">
+    <row r="35" spans="1:82">
       <c r="A35" s="2">
         <v>36296</v>
       </c>
@@ -8720,8 +8819,11 @@
       <c r="CC35">
         <v>-0.0513544742585778</v>
       </c>
+      <c r="CD35">
+        <v>-0.02568053415510532</v>
+      </c>
     </row>
-    <row r="36" spans="1:81">
+    <row r="36" spans="1:82">
       <c r="A36" s="2">
         <v>36387</v>
       </c>
@@ -8965,8 +9067,11 @@
       <c r="CC36">
         <v>1.271676300578046</v>
       </c>
+      <c r="CD36">
+        <v>1.258669406627285</v>
+      </c>
     </row>
-    <row r="37" spans="1:81">
+    <row r="37" spans="1:82">
       <c r="A37" s="2">
         <v>36479</v>
       </c>
@@ -9210,8 +9315,11 @@
       <c r="CC37">
         <v>0.4312531709792027</v>
       </c>
+      <c r="CD37">
+        <v>0.4312531709792027</v>
+      </c>
     </row>
-    <row r="38" spans="1:81">
+    <row r="38" spans="1:82">
       <c r="A38" s="2">
         <v>36571</v>
       </c>
@@ -9455,8 +9563,11 @@
       <c r="CC38">
         <v>1.692346552159622</v>
       </c>
+      <c r="CD38">
+        <v>1.679717100277846</v>
+      </c>
     </row>
-    <row r="39" spans="1:81">
+    <row r="39" spans="1:82">
       <c r="A39" s="2">
         <v>36662</v>
       </c>
@@ -9700,8 +9811,11 @@
       <c r="CC39">
         <v>0.7327372081470486</v>
       </c>
+      <c r="CD39">
+        <v>0.7452490373866529</v>
+      </c>
     </row>
-    <row r="40" spans="1:81">
+    <row r="40" spans="1:82">
       <c r="A40" s="2">
         <v>36753</v>
       </c>
@@ -9945,8 +10059,11 @@
       <c r="CC40">
         <v>0.4315127604487662</v>
       </c>
+      <c r="CD40">
+        <v>0.4315127604487662</v>
+      </c>
     </row>
-    <row r="41" spans="1:81">
+    <row r="41" spans="1:82">
       <c r="A41" s="2">
         <v>36845</v>
       </c>
@@ -10190,8 +10307,11 @@
       <c r="CC41">
         <v>-0.3068990915786889</v>
       </c>
+      <c r="CD41">
+        <v>-0.3068990915786889</v>
+      </c>
     </row>
-    <row r="42" spans="1:81">
+    <row r="42" spans="1:82">
       <c r="A42" s="2">
         <v>36937</v>
       </c>
@@ -10435,8 +10555,11 @@
       <c r="CC42">
         <v>2.167220785617542</v>
       </c>
+      <c r="CD42">
+        <v>2.167220785617542</v>
+      </c>
     </row>
-    <row r="43" spans="1:81">
+    <row r="43" spans="1:82">
       <c r="A43" s="2">
         <v>37027</v>
       </c>
@@ -10680,8 +10803,11 @@
       <c r="CC43">
         <v>-0.4700494154513687</v>
       </c>
+      <c r="CD43">
+        <v>-0.4700494154513687</v>
+      </c>
     </row>
-    <row r="44" spans="1:81">
+    <row r="44" spans="1:82">
       <c r="A44" s="2">
         <v>37118</v>
       </c>
@@ -10925,8 +11051,11 @@
       <c r="CC44">
         <v>0.2785178009203245</v>
       </c>
+      <c r="CD44">
+        <v>0.2785178009203245</v>
+      </c>
     </row>
-    <row r="45" spans="1:81">
+    <row r="45" spans="1:82">
       <c r="A45" s="2">
         <v>37210</v>
       </c>
@@ -11170,8 +11299,11 @@
       <c r="CC45">
         <v>-0.09660669001328136</v>
       </c>
+      <c r="CD45">
+        <v>-0.09660669001328136</v>
+      </c>
     </row>
-    <row r="46" spans="1:81">
+    <row r="46" spans="1:82">
       <c r="A46" s="2">
         <v>37302</v>
       </c>
@@ -11415,8 +11547,11 @@
       <c r="CC46">
         <v>-0.3988879487489403</v>
       </c>
+      <c r="CD46">
+        <v>-0.3988879487489403</v>
+      </c>
     </row>
-    <row r="47" spans="1:81">
+    <row r="47" spans="1:82">
       <c r="A47" s="2">
         <v>37392</v>
       </c>
@@ -11660,8 +11795,11 @@
       <c r="CC47">
         <v>0.3883495145630985</v>
       </c>
+      <c r="CD47">
+        <v>0.3883495145630985</v>
+      </c>
     </row>
-    <row r="48" spans="1:81">
+    <row r="48" spans="1:82">
       <c r="A48" s="2">
         <v>37483</v>
       </c>
@@ -11905,8 +12043,11 @@
       <c r="CC48">
         <v>0.398936170212764</v>
       </c>
+      <c r="CD48">
+        <v>0.398936170212764</v>
+      </c>
     </row>
-    <row r="49" spans="1:81">
+    <row r="49" spans="1:82">
       <c r="A49" s="2">
         <v>37575</v>
       </c>
@@ -12150,8 +12291,11 @@
       <c r="CC49">
         <v>0.2046959662853723</v>
       </c>
+      <c r="CD49">
+        <v>0.2046959662853723</v>
+      </c>
     </row>
-    <row r="50" spans="1:81">
+    <row r="50" spans="1:82">
       <c r="A50" s="2">
         <v>37667</v>
       </c>
@@ -12395,8 +12539,11 @@
       <c r="CC50">
         <v>-1.610189858207166</v>
       </c>
+      <c r="CD50">
+        <v>-1.610189858207166</v>
+      </c>
     </row>
-    <row r="51" spans="1:81">
+    <row r="51" spans="1:82">
       <c r="A51" s="2">
         <v>37757</v>
       </c>
@@ -12640,8 +12787,11 @@
       <c r="CC51">
         <v>-0.02442598925255987</v>
       </c>
+      <c r="CD51">
+        <v>-0.02442598925255987</v>
+      </c>
     </row>
-    <row r="52" spans="1:81">
+    <row r="52" spans="1:82">
       <c r="A52" s="2">
         <v>37848</v>
       </c>
@@ -12885,8 +13035,11 @@
       <c r="CC52">
         <v>1.258245785487419</v>
       </c>
+      <c r="CD52">
+        <v>1.258245785487419</v>
+      </c>
     </row>
-    <row r="53" spans="1:81">
+    <row r="53" spans="1:82">
       <c r="A53" s="2">
         <v>37940</v>
       </c>
@@ -13130,8 +13283,11 @@
       <c r="CC53">
         <v>0.1085776330076045</v>
       </c>
+      <c r="CD53">
+        <v>0.1085776330076045</v>
+      </c>
     </row>
-    <row r="54" spans="1:81">
+    <row r="54" spans="1:82">
       <c r="A54" s="2">
         <v>38032</v>
       </c>
@@ -13375,8 +13531,11 @@
       <c r="CC54">
         <v>-0.2289708363461047</v>
       </c>
+      <c r="CD54">
+        <v>-0.2289708363461047</v>
+      </c>
     </row>
-    <row r="55" spans="1:81">
+    <row r="55" spans="1:82">
       <c r="A55" s="2">
         <v>38123</v>
       </c>
@@ -13620,8 +13779,11 @@
       <c r="CC55">
         <v>1.087087812537736</v>
       </c>
+      <c r="CD55">
+        <v>1.087087812537736</v>
+      </c>
     </row>
-    <row r="56" spans="1:81">
+    <row r="56" spans="1:82">
       <c r="A56" s="2">
         <v>38214</v>
       </c>
@@ -13865,8 +14027,11 @@
       <c r="CC56">
         <v>-0.477954355359053</v>
       </c>
+      <c r="CD56">
+        <v>-0.477954355359053</v>
+      </c>
     </row>
-    <row r="57" spans="1:81">
+    <row r="57" spans="1:82">
       <c r="A57" s="2">
         <v>38306</v>
       </c>
@@ -14110,8 +14275,11 @@
       <c r="CC57">
         <v>-0.01200624324649431</v>
       </c>
+      <c r="CD57">
+        <v>-0.01200624324649431</v>
+      </c>
     </row>
-    <row r="58" spans="1:81">
+    <row r="58" spans="1:82">
       <c r="A58" s="2">
         <v>38398</v>
       </c>
@@ -14355,8 +14523,11 @@
       <c r="CC58">
         <v>0.2161383285302505</v>
       </c>
+      <c r="CD58">
+        <v>0.2161383285302505</v>
+      </c>
     </row>
-    <row r="59" spans="1:81">
+    <row r="59" spans="1:82">
       <c r="A59" s="2">
         <v>38488</v>
       </c>
@@ -14597,8 +14768,11 @@
       <c r="CC59">
         <v>0.4433261442607292</v>
       </c>
+      <c r="CD59">
+        <v>0.4433261442607292</v>
+      </c>
     </row>
-    <row r="60" spans="1:81">
+    <row r="60" spans="1:82">
       <c r="A60" s="2">
         <v>38579</v>
       </c>
@@ -14836,8 +15010,11 @@
       <c r="CC60">
         <v>0.6918764165573164</v>
       </c>
+      <c r="CD60">
+        <v>0.6918764165573164</v>
+      </c>
     </row>
-    <row r="61" spans="1:81">
+    <row r="61" spans="1:82">
       <c r="A61" s="2">
         <v>38671</v>
       </c>
@@ -15072,8 +15249,11 @@
       <c r="CC61">
         <v>0.6160407534652415</v>
       </c>
+      <c r="CD61">
+        <v>0.6160407534652415</v>
+      </c>
     </row>
-    <row r="62" spans="1:81">
+    <row r="62" spans="1:82">
       <c r="A62" s="2">
         <v>38763</v>
       </c>
@@ -15305,8 +15485,11 @@
       <c r="CC62">
         <v>1.036147415518657</v>
       </c>
+      <c r="CD62">
+        <v>1.036147415518657</v>
+      </c>
     </row>
-    <row r="63" spans="1:81">
+    <row r="63" spans="1:82">
       <c r="A63" s="2">
         <v>38853</v>
       </c>
@@ -15535,8 +15718,11 @@
       <c r="CC63">
         <v>1.736394359631738</v>
       </c>
+      <c r="CD63">
+        <v>1.724740706211402</v>
+      </c>
     </row>
-    <row r="64" spans="1:81">
+    <row r="64" spans="1:82">
       <c r="A64" s="2">
         <v>38944</v>
       </c>
@@ -15762,8 +15948,11 @@
       <c r="CC64">
         <v>0.9736540664375813</v>
       </c>
+      <c r="CD64">
+        <v>0.9852216748768466</v>
+      </c>
     </row>
-    <row r="65" spans="1:81">
+    <row r="65" spans="1:82">
       <c r="A65" s="2">
         <v>39036</v>
       </c>
@@ -15986,8 +16175,11 @@
       <c r="CC65">
         <v>1.338627339761761</v>
       </c>
+      <c r="CD65">
+        <v>1.338627339761761</v>
+      </c>
     </row>
-    <row r="66" spans="1:81">
+    <row r="66" spans="1:82">
       <c r="A66" s="2">
         <v>39128</v>
       </c>
@@ -16207,8 +16399,11 @@
       <c r="CC66">
         <v>0.2910556364043492</v>
       </c>
+      <c r="CD66">
+        <v>0.2910556364043492</v>
+      </c>
     </row>
-    <row r="67" spans="1:81">
+    <row r="67" spans="1:82">
       <c r="A67" s="2">
         <v>39218</v>
       </c>
@@ -16425,8 +16620,11 @@
       <c r="CC67">
         <v>1.004576403616465</v>
       </c>
+      <c r="CD67">
+        <v>1.004576403616465</v>
+      </c>
     </row>
-    <row r="68" spans="1:81">
+    <row r="68" spans="1:82">
       <c r="A68" s="2">
         <v>39309</v>
       </c>
@@ -16640,8 +16838,11 @@
       <c r="CC68">
         <v>0.4972925185103358</v>
       </c>
+      <c r="CD68">
+        <v>0.4972925185103358</v>
+      </c>
     </row>
-    <row r="69" spans="1:81">
+    <row r="69" spans="1:82">
       <c r="A69" s="2">
         <v>39401</v>
       </c>
@@ -16852,8 +17053,11 @@
       <c r="CC69">
         <v>0.8357158566087587</v>
       </c>
+      <c r="CD69">
+        <v>0.8357158566087587</v>
+      </c>
     </row>
-    <row r="70" spans="1:81">
+    <row r="70" spans="1:82">
       <c r="A70" s="2">
         <v>39493</v>
       </c>
@@ -17061,8 +17265,11 @@
       <c r="CC70">
         <v>0.5125408942202823</v>
       </c>
+      <c r="CD70">
+        <v>0.5125408942202823</v>
+      </c>
     </row>
-    <row r="71" spans="1:81">
+    <row r="71" spans="1:82">
       <c r="A71" s="2">
         <v>39584</v>
       </c>
@@ -17267,8 +17474,11 @@
       <c r="CC71">
         <v>-0.2169903439296982</v>
       </c>
+      <c r="CD71">
+        <v>-0.2169903439296982</v>
+      </c>
     </row>
-    <row r="72" spans="1:81">
+    <row r="72" spans="1:82">
       <c r="A72" s="2">
         <v>39675</v>
       </c>
@@ -17470,8 +17680,11 @@
       <c r="CC72">
         <v>-0.695879091007938</v>
       </c>
+      <c r="CD72">
+        <v>-0.695879091007938</v>
+      </c>
     </row>
-    <row r="73" spans="1:81">
+    <row r="73" spans="1:82">
       <c r="A73" s="2">
         <v>39767</v>
       </c>
@@ -17670,8 +17883,11 @@
       <c r="CC73">
         <v>-1.817584583378952</v>
       </c>
+      <c r="CD73">
+        <v>-1.817584583378952</v>
+      </c>
     </row>
-    <row r="74" spans="1:81">
+    <row r="74" spans="1:82">
       <c r="A74" s="2">
         <v>39859</v>
       </c>
@@ -17867,8 +18083,11 @@
       <c r="CC74">
         <v>-5.107616817218688</v>
       </c>
+      <c r="CD74">
+        <v>-5.107616817218688</v>
+      </c>
     </row>
-    <row r="75" spans="1:81">
+    <row r="75" spans="1:82">
       <c r="A75" s="2">
         <v>39949</v>
       </c>
@@ -18061,8 +18280,11 @@
       <c r="CC75">
         <v>0.2115407215888972</v>
       </c>
+      <c r="CD75">
+        <v>0.2115407215888972</v>
+      </c>
     </row>
-    <row r="76" spans="1:81">
+    <row r="76" spans="1:82">
       <c r="A76" s="2">
         <v>40040</v>
       </c>
@@ -18252,8 +18474,11 @@
       <c r="CC76">
         <v>0.645009968335871</v>
       </c>
+      <c r="CD76">
+        <v>0.645009968335871</v>
+      </c>
     </row>
-    <row r="77" spans="1:81">
+    <row r="77" spans="1:82">
       <c r="A77" s="2">
         <v>40132</v>
       </c>
@@ -18440,8 +18665,11 @@
       <c r="CC77">
         <v>0.7340946166394893</v>
       </c>
+      <c r="CD77">
+        <v>0.7340946166394893</v>
+      </c>
     </row>
-    <row r="78" spans="1:81">
+    <row r="78" spans="1:82">
       <c r="A78" s="2">
         <v>40224</v>
       </c>
@@ -18625,8 +18853,11 @@
       <c r="CC78">
         <v>1.584731058415258</v>
       </c>
+      <c r="CD78">
+        <v>1.584731058415258</v>
+      </c>
     </row>
-    <row r="79" spans="1:81">
+    <row r="79" spans="1:82">
       <c r="A79" s="2">
         <v>40314</v>
       </c>
@@ -18807,8 +19038,11 @@
       <c r="CC79">
         <v>1.616943748576636</v>
       </c>
+      <c r="CD79">
+        <v>1.62833067638352</v>
+      </c>
     </row>
-    <row r="80" spans="1:81">
+    <row r="80" spans="1:82">
       <c r="A80" s="2">
         <v>40405</v>
       </c>
@@ -18986,8 +19220,11 @@
       <c r="CC80">
         <v>0.98610488570149</v>
       </c>
+      <c r="CD80">
+        <v>0.9747899159663916</v>
+      </c>
     </row>
-    <row r="81" spans="1:81">
+    <row r="81" spans="1:82">
       <c r="A81" s="2">
         <v>40497</v>
       </c>
@@ -19162,8 +19399,11 @@
       <c r="CC81">
         <v>0.5881047492232591</v>
       </c>
+      <c r="CD81">
+        <v>0.5881047492232591</v>
+      </c>
     </row>
-    <row r="82" spans="1:81">
+    <row r="82" spans="1:82">
       <c r="A82" s="2">
         <v>40589</v>
       </c>
@@ -19335,8 +19575,11 @@
       <c r="CC82">
         <v>1.985659128516268</v>
       </c>
+      <c r="CD82">
+        <v>1.985659128516268</v>
+      </c>
     </row>
-    <row r="83" spans="1:81">
+    <row r="83" spans="1:82">
       <c r="A83" s="2">
         <v>40679</v>
       </c>
@@ -19505,8 +19748,11 @@
       <c r="CC83">
         <v>0.1838831800973517</v>
       </c>
+      <c r="CD83">
+        <v>0.1838831800973517</v>
+      </c>
     </row>
-    <row r="84" spans="1:81">
+    <row r="84" spans="1:82">
       <c r="A84" s="2">
         <v>40770</v>
       </c>
@@ -19675,8 +19921,11 @@
       <c r="CC84">
         <v>0.6694018570503026</v>
       </c>
+      <c r="CD84">
+        <v>0.6694018570503026</v>
+      </c>
     </row>
-    <row r="85" spans="1:81">
+    <row r="85" spans="1:82">
       <c r="A85" s="2">
         <v>40862</v>
       </c>
@@ -19842,8 +20091,11 @@
       <c r="CC85">
         <v>0</v>
       </c>
+      <c r="CD85">
+        <v>0</v>
+      </c>
     </row>
-    <row r="86" spans="1:81">
+    <row r="86" spans="1:82">
       <c r="A86" s="2">
         <v>40954</v>
       </c>
@@ -20006,8 +20258,11 @@
       <c r="CC86">
         <v>0.1823251823251842</v>
       </c>
+      <c r="CD86">
+        <v>0.1823251823251842</v>
+      </c>
     </row>
-    <row r="87" spans="1:81">
+    <row r="87" spans="1:82">
       <c r="A87" s="2">
         <v>41045</v>
       </c>
@@ -20167,8 +20422,11 @@
       <c r="CC87">
         <v>0.1926988545123721</v>
       </c>
+      <c r="CD87">
+        <v>0.203404346429716</v>
+      </c>
     </row>
-    <row r="88" spans="1:81">
+    <row r="88" spans="1:82">
       <c r="A88" s="2">
         <v>41136</v>
       </c>
@@ -20325,8 +20583,11 @@
       <c r="CC88">
         <v>0.1923282401965943</v>
       </c>
+      <c r="CD88">
+        <v>0.1816239316239334</v>
+      </c>
     </row>
-    <row r="89" spans="1:81">
+    <row r="89" spans="1:82">
       <c r="A89" s="2">
         <v>41228</v>
       </c>
@@ -20480,8 +20741,11 @@
       <c r="CC89">
         <v>-0.4052468806654532</v>
       </c>
+      <c r="CD89">
+        <v>-0.4052468806654532</v>
+      </c>
     </row>
-    <row r="90" spans="1:81">
+    <row r="90" spans="1:82">
       <c r="A90" s="2">
         <v>41320</v>
       </c>
@@ -20632,8 +20896,11 @@
       <c r="CC90">
         <v>-0.3640646750187422</v>
       </c>
+      <c r="CD90">
+        <v>-0.3640646750187422</v>
+      </c>
     </row>
-    <row r="91" spans="1:81">
+    <row r="91" spans="1:82">
       <c r="A91" s="2">
         <v>41410</v>
       </c>
@@ -20781,8 +21048,11 @@
       <c r="CC91">
         <v>0.9887157442235376</v>
       </c>
+      <c r="CD91">
+        <v>0.9887157442235376</v>
+      </c>
     </row>
-    <row r="92" spans="1:81">
+    <row r="92" spans="1:82">
       <c r="A92" s="2">
         <v>41501</v>
       </c>
@@ -20927,8 +21197,11 @@
       <c r="CC92">
         <v>0.553368096200911</v>
       </c>
+      <c r="CD92">
+        <v>0.553368096200911</v>
+      </c>
     </row>
-    <row r="93" spans="1:81">
+    <row r="93" spans="1:82">
       <c r="A93" s="2">
         <v>41593</v>
       </c>
@@ -21070,8 +21343,11 @@
       <c r="CC93">
         <v>0.4550746110699617</v>
       </c>
+      <c r="CD93">
+        <v>0.4550746110699617</v>
+      </c>
     </row>
-    <row r="94" spans="1:81">
+    <row r="94" spans="1:82">
       <c r="A94" s="2">
         <v>41685</v>
       </c>
@@ -21210,8 +21486,11 @@
       <c r="CC94">
         <v>1.116729877791827</v>
       </c>
+      <c r="CD94">
+        <v>1.116729877791827</v>
+      </c>
     </row>
-    <row r="95" spans="1:81">
+    <row r="95" spans="1:82">
       <c r="A95" s="2">
         <v>41775</v>
       </c>
@@ -21347,8 +21626,11 @@
       <c r="CC95">
         <v>-0.3542404667639127</v>
       </c>
+      <c r="CD95">
+        <v>-0.3542404667639127</v>
+      </c>
     </row>
-    <row r="96" spans="1:81">
+    <row r="96" spans="1:82">
       <c r="A96" s="2">
         <v>41866</v>
       </c>
@@ -21484,8 +21766,11 @@
       <c r="CC96">
         <v>0.6378084483479709</v>
       </c>
+      <c r="CD96">
+        <v>0.6378084483479709</v>
+      </c>
     </row>
-    <row r="97" spans="1:81">
+    <row r="97" spans="1:82">
       <c r="A97" s="2">
         <v>41958</v>
       </c>
@@ -21618,8 +21903,11 @@
       <c r="CC97">
         <v>0.7376623376623312</v>
       </c>
+      <c r="CD97">
+        <v>0.7376623376623312</v>
+      </c>
     </row>
-    <row r="98" spans="1:81">
+    <row r="98" spans="1:82">
       <c r="A98" s="2">
         <v>42050</v>
       </c>
@@ -21749,8 +22037,11 @@
       <c r="CC98">
         <v>-0.3919141914191373</v>
       </c>
+      <c r="CD98">
+        <v>-0.3816006600659966</v>
+      </c>
     </row>
-    <row r="99" spans="1:81">
+    <row r="99" spans="1:82">
       <c r="A99" s="2">
         <v>42140</v>
       </c>
@@ -21877,8 +22168,11 @@
       <c r="CC99">
         <v>0.6833712984054634</v>
       </c>
+      <c r="CD99">
+        <v>0.6729475100942038</v>
+      </c>
     </row>
-    <row r="100" spans="1:81">
+    <row r="100" spans="1:82">
       <c r="A100" s="2">
         <v>42231</v>
       </c>
@@ -22002,8 +22296,11 @@
       <c r="CC100">
         <v>0.3907856849033419</v>
       </c>
+      <c r="CD100">
+        <v>0.3907856849033419</v>
+      </c>
     </row>
-    <row r="101" spans="1:81">
+    <row r="101" spans="1:82">
       <c r="A101" s="2">
         <v>42323</v>
       </c>
@@ -22124,8 +22421,11 @@
       <c r="CC101">
         <v>0.2560950624871953</v>
       </c>
+      <c r="CD101">
+        <v>0.2560950624871953</v>
+      </c>
     </row>
-    <row r="102" spans="1:81">
+    <row r="102" spans="1:82">
       <c r="A102" s="2">
         <v>42415</v>
       </c>
@@ -22243,8 +22543,11 @@
       <c r="CC102">
         <v>1.123939920302436</v>
       </c>
+      <c r="CD102">
+        <v>1.134157555941554</v>
+      </c>
     </row>
-    <row r="103" spans="1:81">
+    <row r="103" spans="1:82">
       <c r="A103" s="2">
         <v>42506</v>
       </c>
@@ -22359,8 +22662,11 @@
       <c r="CC103">
         <v>0.4243710215216749</v>
       </c>
+      <c r="CD103">
+        <v>0.4041220448575383</v>
+      </c>
     </row>
-    <row r="104" spans="1:81">
+    <row r="104" spans="1:82">
       <c r="A104" s="2">
         <v>42597</v>
       </c>
@@ -22472,8 +22778,11 @@
       <c r="CC104">
         <v>0.1911661132910733</v>
       </c>
+      <c r="CD104">
+        <v>0.2012477359629733</v>
+      </c>
     </row>
-    <row r="105" spans="1:81">
+    <row r="105" spans="1:82">
       <c r="A105" s="2">
         <v>42689</v>
       </c>
@@ -22582,8 +22891,11 @@
       <c r="CC105">
         <v>0.4117292629041943</v>
       </c>
+      <c r="CD105">
+        <v>0.4117292629041943</v>
+      </c>
     </row>
-    <row r="106" spans="1:81">
+    <row r="106" spans="1:82">
       <c r="A106" s="2">
         <v>42781</v>
       </c>
@@ -22689,8 +23001,11 @@
       <c r="CC106">
         <v>1.220122012201219</v>
       </c>
+      <c r="CD106">
+        <v>1.230123012301234</v>
+      </c>
     </row>
-    <row r="107" spans="1:81">
+    <row r="107" spans="1:82">
       <c r="A107" s="2">
         <v>42871</v>
       </c>
@@ -22793,8 +23108,11 @@
       <c r="CC107">
         <v>0.9682837664262465</v>
       </c>
+      <c r="CD107">
+        <v>0.9583086346571812</v>
+      </c>
     </row>
-    <row r="108" spans="1:81">
+    <row r="108" spans="1:82">
       <c r="A108" s="2">
         <v>42962</v>
       </c>
@@ -22894,8 +23212,11 @@
       <c r="CC108">
         <v>1.047069184851754</v>
       </c>
+      <c r="CD108">
+        <v>1.047069184851754</v>
+      </c>
     </row>
-    <row r="109" spans="1:81">
+    <row r="109" spans="1:82">
       <c r="A109" s="2">
         <v>43054</v>
       </c>
@@ -22992,8 +23313,11 @@
       <c r="CC109">
         <v>0.8425334108076606</v>
       </c>
+      <c r="CD109">
+        <v>0.8425334108076606</v>
+      </c>
     </row>
-    <row r="110" spans="1:81">
+    <row r="110" spans="1:82">
       <c r="A110" s="2">
         <v>43146</v>
       </c>
@@ -23087,8 +23411,11 @@
       <c r="CC110">
         <v>-0.4513588783251694</v>
       </c>
+      <c r="CD110">
+        <v>-0.4417554979352672</v>
+      </c>
     </row>
-    <row r="111" spans="1:81">
+    <row r="111" spans="1:82">
       <c r="A111" s="2">
         <v>43236</v>
       </c>
@@ -23179,8 +23506,11 @@
       <c r="CC111">
         <v>0.5305807447424244</v>
       </c>
+      <c r="CD111">
+        <v>0.5112375807851849</v>
+      </c>
     </row>
-    <row r="112" spans="1:81">
+    <row r="112" spans="1:82">
       <c r="A112" s="2">
         <v>43327</v>
       </c>
@@ -23268,8 +23598,11 @@
       <c r="CC112">
         <v>-0.5373764513962077</v>
       </c>
+      <c r="CD112">
+        <v>-0.5278310940499013</v>
+      </c>
     </row>
-    <row r="113" spans="1:81">
+    <row r="113" spans="1:82">
       <c r="A113" s="2">
         <v>43419</v>
       </c>
@@ -23354,8 +23687,11 @@
       <c r="CC113">
         <v>0.6657018813314016</v>
       </c>
+      <c r="CD113">
+        <v>0.6753497346840218</v>
+      </c>
     </row>
-    <row r="114" spans="1:81">
+    <row r="114" spans="1:82">
       <c r="A114" s="2">
         <v>43511</v>
       </c>
@@ -23437,8 +23773,11 @@
       <c r="CC114">
         <v>0.2875215641173061</v>
       </c>
+      <c r="CD114">
+        <v>0.287494010541458</v>
+      </c>
     </row>
-    <row r="115" spans="1:81">
+    <row r="115" spans="1:82">
       <c r="A115" s="2">
         <v>43601</v>
       </c>
@@ -23517,8 +23856,11 @@
       <c r="CC115">
         <v>-0.09556574923546857</v>
       </c>
+      <c r="CD115">
+        <v>-0.1051122790253219</v>
+      </c>
     </row>
-    <row r="116" spans="1:81">
+    <row r="116" spans="1:82">
       <c r="A116" s="2">
         <v>43692</v>
       </c>
@@ -23594,8 +23936,11 @@
       <c r="CC116">
         <v>0.3730629424143874</v>
       </c>
+      <c r="CD116">
+        <v>0.3730629424143874</v>
+      </c>
     </row>
-    <row r="117" spans="1:81">
+    <row r="117" spans="1:82">
       <c r="A117" s="2">
         <v>43784</v>
       </c>
@@ -23668,8 +24013,11 @@
       <c r="CC117">
         <v>-0.1620127704183758</v>
       </c>
+      <c r="CD117">
+        <v>-0.1524826074525977</v>
+      </c>
     </row>
-    <row r="118" spans="1:81">
+    <row r="118" spans="1:82">
       <c r="A118" s="2">
         <v>43876</v>
       </c>
@@ -23739,8 +24087,11 @@
       <c r="CC118">
         <v>-1.727758686521575</v>
       </c>
+      <c r="CD118">
+        <v>-1.737138493843651</v>
+      </c>
     </row>
-    <row r="119" spans="1:81">
+    <row r="119" spans="1:82">
       <c r="A119" s="2">
         <v>43967</v>
       </c>
@@ -23807,8 +24158,11 @@
       <c r="CC119">
         <v>-9.606605148130161</v>
       </c>
+      <c r="CD119">
+        <v>-9.606605148130161</v>
+      </c>
     </row>
-    <row r="120" spans="1:81">
+    <row r="120" spans="1:82">
       <c r="A120" s="2">
         <v>44058</v>
       </c>
@@ -23872,8 +24226,11 @@
       <c r="CC120">
         <v>8.650333118418221</v>
       </c>
+      <c r="CD120">
+        <v>8.650333118418221</v>
+      </c>
     </row>
-    <row r="121" spans="1:81">
+    <row r="121" spans="1:82">
       <c r="A121" s="2">
         <v>44150</v>
       </c>
@@ -23934,8 +24291,11 @@
       <c r="CC121">
         <v>0.8802294530709135</v>
       </c>
+      <c r="CD121">
+        <v>0.8802294530709135</v>
+      </c>
     </row>
-    <row r="122" spans="1:81">
+    <row r="122" spans="1:82">
       <c r="A122" s="2">
         <v>44242</v>
       </c>
@@ -23993,8 +24353,11 @@
       <c r="CC122">
         <v>-0.4509803921568566</v>
       </c>
+      <c r="CD122">
+        <v>-0.4509803921568566</v>
+      </c>
     </row>
-    <row r="123" spans="1:81">
+    <row r="123" spans="1:82">
       <c r="A123" s="2">
         <v>44332</v>
       </c>
@@ -24049,8 +24412,11 @@
       <c r="CC123">
         <v>1.92042544809926</v>
       </c>
+      <c r="CD123">
+        <v>1.92042544809926</v>
+      </c>
     </row>
-    <row r="124" spans="1:81">
+    <row r="124" spans="1:82">
       <c r="A124" s="2">
         <v>44423</v>
       </c>
@@ -24102,8 +24468,11 @@
       <c r="CC124">
         <v>1.256160015460442</v>
       </c>
+      <c r="CD124">
+        <v>1.256160015460442</v>
+      </c>
     </row>
-    <row r="125" spans="1:81">
+    <row r="125" spans="1:82">
       <c r="A125" s="2">
         <v>44515</v>
       </c>
@@ -24152,8 +24521,11 @@
       <c r="CC125">
         <v>0.4866876610363498</v>
       </c>
+      <c r="CD125">
+        <v>0.4866876610363498</v>
+      </c>
     </row>
-    <row r="126" spans="1:81">
+    <row r="126" spans="1:82">
       <c r="A126" s="2">
         <v>44607</v>
       </c>
@@ -24199,8 +24571,11 @@
       <c r="CC126">
         <v>0.5887939221272598</v>
       </c>
+      <c r="CD126">
+        <v>0.5792972459639122</v>
+      </c>
     </row>
-    <row r="127" spans="1:81">
+    <row r="127" spans="1:82">
       <c r="A127" s="2">
         <v>44697</v>
       </c>
@@ -24243,8 +24618,11 @@
       <c r="CC127">
         <v>-0.1604984894259835</v>
       </c>
+      <c r="CD127">
+        <v>-0.14162968558209</v>
+      </c>
     </row>
-    <row r="128" spans="1:81">
+    <row r="128" spans="1:82">
       <c r="A128" s="2">
         <v>44788</v>
       </c>
@@ -24284,8 +24662,11 @@
       <c r="CC128">
         <v>0.5768321513002358</v>
       </c>
+      <c r="CD128">
+        <v>0.5673222390317647</v>
+      </c>
     </row>
-    <row r="129" spans="1:81">
+    <row r="129" spans="1:82">
       <c r="A129" s="2">
         <v>44880</v>
       </c>
@@ -24322,8 +24703,11 @@
       <c r="CC129">
         <v>0.0752162467092876</v>
       </c>
+      <c r="CD129">
+        <v>0.0752162467092876</v>
+      </c>
     </row>
-    <row r="130" spans="1:81">
+    <row r="130" spans="1:82">
       <c r="A130" s="2">
         <v>44972</v>
       </c>
@@ -24357,8 +24741,11 @@
       <c r="CC130">
         <v>-0.385193536264559</v>
       </c>
+      <c r="CD130">
+        <v>-0.3945885005636995</v>
+      </c>
     </row>
-    <row r="131" spans="1:81">
+    <row r="131" spans="1:82">
       <c r="A131" s="2">
         <v>45062</v>
       </c>
@@ -24389,8 +24776,11 @@
       <c r="CC131">
         <v>-0.726209563331129</v>
       </c>
+      <c r="CD131">
+        <v>-0.7074136955291455</v>
+      </c>
     </row>
-    <row r="132" spans="1:81">
+    <row r="132" spans="1:82">
       <c r="A132" s="2">
         <v>45153</v>
       </c>
@@ -24418,8 +24808,11 @@
       <c r="CC132">
         <v>0.1805054151624527</v>
       </c>
+      <c r="CD132">
+        <v>0.1709888857224345</v>
+      </c>
     </row>
-    <row r="133" spans="1:81">
+    <row r="133" spans="1:82">
       <c r="A133" s="2">
         <v>45245</v>
       </c>
@@ -24444,8 +24837,11 @@
       <c r="CC133">
         <v>0.9103840682787991</v>
       </c>
+      <c r="CD133">
+        <v>0.9009009009009035</v>
+      </c>
     </row>
-    <row r="134" spans="1:81">
+    <row r="134" spans="1:82">
       <c r="A134" s="2">
         <v>45337</v>
       </c>
@@ -24467,8 +24863,11 @@
       <c r="CC134">
         <v>-0.7612066535100106</v>
       </c>
+      <c r="CD134">
+        <v>-0.7612781954887239</v>
+      </c>
     </row>
-    <row r="135" spans="1:81">
+    <row r="135" spans="1:82">
       <c r="A135" s="2">
         <v>45428</v>
       </c>
@@ -24487,8 +24886,11 @@
       <c r="CC135">
         <v>-0.1609848484848366</v>
       </c>
+      <c r="CD135">
+        <v>-0.1420589070934801</v>
+      </c>
     </row>
-    <row r="136" spans="1:81">
+    <row r="136" spans="1:82">
       <c r="A136" s="2">
         <v>45519</v>
       </c>
@@ -24504,8 +24906,11 @@
       <c r="CC136">
         <v>-0.3699136868064123</v>
       </c>
+      <c r="CD136">
+        <v>-0.3793626707131937</v>
+      </c>
     </row>
-    <row r="137" spans="1:81">
+    <row r="137" spans="1:82">
       <c r="A137" s="2">
         <v>45611</v>
       </c>
@@ -24518,8 +24923,11 @@
       <c r="CC137">
         <v>-0.276085300837782</v>
       </c>
+      <c r="CD137">
+        <v>-0.276085300837782</v>
+      </c>
     </row>
-    <row r="138" spans="1:81">
+    <row r="138" spans="1:82">
       <c r="A138" s="2">
         <v>45703</v>
       </c>
@@ -24529,13 +24937,27 @@
       <c r="CC138">
         <v>0.5632458233890247</v>
       </c>
+      <c r="CD138">
+        <v>0.5155131264916527</v>
+      </c>
     </row>
-    <row r="139" spans="1:81">
+    <row r="139" spans="1:82">
       <c r="A139" s="2">
         <v>45793</v>
       </c>
       <c r="CC139">
         <v>-0.1993544712360053</v>
+      </c>
+      <c r="CD139">
+        <v>-0.09497578117580827</v>
+      </c>
+    </row>
+    <row r="140" spans="1:82">
+      <c r="A140" s="2">
+        <v>45884</v>
+      </c>
+      <c r="CD140">
+        <v>0.06654624964350926</v>
       </c>
     </row>
   </sheetData>
